--- a/resultado_classificacao.xlsx
+++ b/resultado_classificacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caixa-my.sharepoint.com/personal/e514037_corp_caixa_gov_br/Documents/Área de Trabalho/hackathon-cgdf-acesso-informacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_7D39D1A4D330DE4097DA3F11595ED87656CCDC5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3063AD-8BA2-4395-B574-540EE4C1BEAD}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_22C5F2B5D3505078DF383111595ED87656CC4205" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A122ABFB-FE8D-4C0D-953D-9A9D73D2E529}"/>
   <bookViews>
-    <workbookView xWindow="17085" yWindow="0" windowWidth="11820" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>PÚBLICO</t>
   </si>
   <si>
-    <t>Nenhum dado pessoal explícito</t>
+    <t>Nenhum dado pessoal identificado</t>
   </si>
   <si>
     <t>Gostaria de saber da defensoria se q irão implementar o reajuste no auxílio saúde, pois houve uma mudança na faixa de valores da minha dependente, pois ela mudou de idade. No entanto, não percebi ainda nenhum reajuste no repasse,  mesmo a mensalidade aumentando.</t>
@@ -68,13 +68,13 @@
     <t>NÃO PÚBLICO</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['CPF', 'PHONE']</t>
+    <t>Dado pessoal explícito: ['CPF', 'NAME']</t>
   </si>
   <si>
     <t>Prezados bom dia,  Em visita ao Hospital de Apoio de Brasilia onde fui recepcionada e bem atendida pelo Dr Joaquim fui orientada sobre a existência de dados abertos e painel de atenção ao CiD G-10. Neste sentido solicito informação quanto ao perfil do cidadão acometido pela doença de Huntington no Distrito Federal.  Taxa de pacientes atendidos por idade extraidas do Infosaúde do DF.   Solicito o caminho de acesso ao dado aberto público.  Atenciosamente,  Antonio Costa Controladoria-Geral do Distrito Federal Gestor PPGG 21-1205-1999</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['PHONE', 'NAME']</t>
+    <t>Dado pessoal explícito: ['NAME']</t>
   </si>
   <si>
     <t>Gostaria de saber se a legislação que reduziu o ITBI é valida somente até 31/03/2025.</t>
@@ -83,7 +83,7 @@
     <t>Solicito, gentilmente, acesso pessoal ao processo SEI: 22009-98514623/2017-26, para acompanhar o andamento e as pendências que surgirem, até a sua conclusão.   O processo trata de uma demanda para a solução de um problema de interesse da Paulista Esportes Praça Dom Henrique, a qual faço parte como proprietária.   Encaminho meus documentos pessoais e a Certidão de Ônus do lote, onde consta o meu registro.  Meus dados: Ruth Helena Franco CPF: 110.100.179-87 Tel. (54)99199-1000  Observação: Já possuo login e senha para o Sistema SEI.  Atenciosamente, Ruth</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['CPF', 'NAME']</t>
+    <t>Dado pessoal explícito: ['CPF', 'PHONE', 'NAME']</t>
   </si>
   <si>
     <t>Respeitosamente, solicitam-se as seguintes informações:
@@ -132,15 +132,12 @@
     <t>Solicito os registros de frequência dos servidores abaixo listados relativos ao período de 31/05/2015 A 01/12/2015:   Associação de Ensino Unificado do Distrito Federal  Lúcio Miguel - MATRÍCULA 12345678 (TUTOR EDUCACAO SUPERIOR A15)  Leonardo Rocha - MATRÍCULA 98745632D (PROF. EDUCACAO SUPERIOR F16)  Considerando o processo 56478.000012/2026-05 da CGU, tal solicitação não se enquadra em informação pessoal sensível.</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['PHONE']</t>
+    <t>Dado pessoal explícito: ['MATRICULA', 'NAME']</t>
   </si>
   <si>
     <t>Prezados!  Gostaria de solicitar a declaração de exercício findo da servidora AURA Costa Mota (matrícula 98.123-3), na qualidade de sua representante.  Preciso do montante que ela tem a receber referente a despesas de exercícios encerrados.  Para tanto, encaminho procuração, substabelecimento, cópia do documento do constituinte e minha OAB.  Att.,  Rafael</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['NAME']</t>
-  </si>
-  <si>
     <t>Sou inquilina do imóvel localizado na CRN 104 Bloco I loja 15, em frente à L3 sul, onde o GDF tem feito o trabalho asfalto.  No referido imóvel há inúmeros vitrais (imagens anexas), painéis Athos Bulsão, mosaicos de Gugon e lustres e luminárias antigas, os quais têm passado por intensa movimentação em razão do maquinário usado pelo GDF na obra; o que coloca as peças em risco.  Assim, visando a prevenir responsabilidades, venho por intermédio deste canal noticiar os fatos, ao tempo em que pugno pela adoção de cautelas devidas na execução do serviço a fim de evitar danos irreparáveis às referidas obras.</t>
   </si>
   <si>
@@ -150,7 +147,7 @@
     <t>ILUSTRÍSSIMO SENHOR SECRETÁRIO DE ESTADO DE SAÚDE DO DISTRITO FDERAL    OBJETO: SOLICITAÇÃO DE INFORMAÇÕES AO SERVIÇO DE INFORMAÇÕES AO CIDADÃO – SIC REFERENTE AO CONCURSO PÚBLICO EDITAL Nº 85 - SES/DF, DE 02 DE DEZEMBRO 2009 PARA PROVIMENTO DE VAGAS E FORMAÇÃO DE CADASTRO DE RESERVA EM CARGOS DAS CARREIRAS MAGISTÉRIO PÚBLICO E ASSISTÊNCIA À EDUCAÇÃO  Jorge Luiz Pereira Vieira, brasileiro, solteiro, advogado inscrito na OAB/SP sob nº 14.123, inscrito no CPF 101.000.800-73, com escritório profissional estabelecido na Avenida Luciano Coutinho Rua 5, terceiro piso, salas 139 / 140, Edifício Centro Atlântica, Guarulhos-RS, comparece perante Vossa Senhoria, a fim de solicitar informações e providências nos termos seguintes: I – Informar a data de validade e as medidas pertinentes, em relação ao concurso público para fins de provimento de vagas para formação de cadastro de reserva em cargos das Carreiras Magistério Público e Assistência à Educação do Distrito Federal, conforme Edital no  85 - SES/DF, DE 02 de dezembro de 2009; II – Informar sobre a lista de convocados e empossados; III – Informar sobre a relação de candidatos em cadastro de reserva ou remanescentes porventura existentes; IV – Informar sobre a existência de cargos em vacância;  V – Fornecer os editais e demais publicações oficiais sobre o referido certame; Sem mais para o momento, protesta por elevada estima e consideração. Da Região Administrativa do Gama – DF, 16 de agosto de 2010. Cordialmente, _________________________________________________ Jorge Luiz Pereira Vieira OAB/SP 14.123 E-mail: netolemos@me.pe Aplicativo de mensagem WhatsApp: 89 34180-1890</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['EMAIL', 'CPF']</t>
+    <t>Dado pessoal explícito: ['EMAIL', 'CPF', 'PHONE', 'NAME']</t>
   </si>
   <si>
     <t>Bom dia!! Gostariabde uma fiscalização nas calçadas na shdf 602 - 607, blocos R U J C F. Grata</t>
@@ -189,6 +186,9 @@
 Agradecemos o envio das informações.</t>
   </si>
   <si>
+    <t>Referências institucionais ou empresariais não caracterizam dado pessoal</t>
+  </si>
+  <si>
     <t>Prezados, boa tarde!  Gostaria de solicitar a demonstrativo de cálculos de licença prêmio do servidor João Campos Cruz (matricula 15.785-4), na qualidade de sua representante.  Preciso das rubricas consideradas na base de cálculo da LPA, com indicação da i) quantidade de meses de LPA; ii) valor da base de cálculo da LPA; iii) valor total da conversão em pecúnia; e iv) parcelas.   Para tanto, encaminho procuração, substabelecimento, cópia do documento do constituinte e minha OAB.  Att.,  Lima Tavares</t>
   </si>
   <si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Bom dia,   Eu ja tenho a viabilidade aprovada. porém a junta me pede para eu fazer uma nova viabilidade alegando o nome da empresa!  neste caso o número protocolo integrado vai mudar e a taxa foi paga como faço para aproveitamento a viabilidade aprovada e só atualizar o nome e as exigência da junta comercial. Pois pelo que eu entendo para eu fazer uma nova viabilidade tenho que cancelar a que está vigente, fazer uma nova com certeza terá outro número e como vou fazer com a taxa paga.  motivo pendência nota explicativa 1. corrigir nire: 7893214568-7 89- prezado senhor usuário, orientamos fazer uma nova viabilidade de nome empresarial e retirar o ( 01 ) constante após a natureza jurídica do nome empresarial  CO S DE E Ltda  Preciso de orientação em referencia a taxa que foi pago com o protocolo DFP4568523652, COMO MANTER ENTE NUMERO</t>
+  </si>
+  <si>
+    <t>Dado pessoal explícito: ['PHONE']</t>
   </si>
   <si>
     <t>Troca de titularidade, moro de aluguel e a residência possui um débito altíssimo de luz, o antigo morador não pagava e deixou acumular</t>
@@ -498,9 +501,6 @@
   </si>
   <si>
     <t>Denúncia - e-Ouvidoria Canal de comunicação entre o cidadão e a administração pública.  PROTOCOLO: 000254.2012-56   Informações do Pedido Razão Social: gestaojaira_ CNPJ: 48.236.147/0001-89 E-mail: feito10@press.so   Secretaria: Contoladoria Geral Assunto: ASSÉDIO Data Pedido: 31/11/2012 Bairro Hortolândia Prazo de atendimento: 28/03/2024 Localização: Ministério Público do SP   Descrição: CARTA PRECATÓRIA PARA TABOÃO DA SERRA. PARA QUE NÃO EXISTA ESBULHO OU ASSÉDIO MORAL: DENUNCIA LIGAÇÕES TELEFÔNICAS MUDAS. OCORRÊNCIA REGISTRADO NAS DELEGACIAS.   COMUNICADO DO CIDADÃO CPF 551.169.500-18. Eduardo da Costa Barbosa (13/03/1956). Nascimento em Brasília, Distrito Federal. Número do telefone (95)99149-2006 e Whatsapp (97)99201-2009. Nome social (se for o caso); Nome da mãe e do pai; funcionária pública Pablo da Vitória Simões. Endereço residência à Avenida São Luís 333 Taboão da Serra SP CEP 29. 192 - 170. Condomínio Municipal Hélio Silva Campos  * Motivo do pedido: Solicitação de providências após o registro de inúmeros e diversos boletins de ocorrências. VENDA DO IMÓVEL.   Simplificando a denúncia para fiscalização e proteção municipal. Motivo do pedido MONITORAMENTO INCOMUM E REGISTROS DE NOVAS OCORRÊNCIAS. A liberdade de locomoção é um direito fundamental amplo, assegurado a qualquer ser humano, mas que tem suas limitações. Nossa Constituição trata do direito à liberdade de locomoção em vários momentos, conforme se verá. No art. 5º, XV da Constituição Federal está escrito o seguinte.   MPSP:Protocolo realizado por Marcos Henrique da Silva Simoes, em nome de Edson Henrique da Costa Camargo. Os arquivos protocolados foram juntados nos autos Gampes nº 2012.01315.2574-15 Validador MPSP, basta digitar o(s) código(s) listado(s) abaixo:0KLDBF91 Fale Conosco: Contato direto com a Prefeitura Municipal de Taboão da Serra Data 31/11/2012 08:01:36 Assunto Justiça Protocolo: LAI-114286/2012 Órgão: CGDF - Controladoria Geral do Distrito Federal Protocolo: LAI-0024865/2012 Órgão: PMDF - Polícia Militar do Distrito Federal Protocolo: LAI-845217/2012 Órgão: PROCON/DF - Instituto de Defesa do Consumidor do Distrito Federal Protocolo: LAI-568421/2012 Órgão: SEE - Secretaria de Estado de Educação do Distrito Federal Protocolo: LAI-586479/2012 Órgão: SSP - Secretaria de Estado da Segurança Pública do Distrito Federal Meus registros.</t>
-  </si>
-  <si>
-    <t>Dado pessoal explícito: ['EMAIL', 'CPF', 'PHONE']</t>
   </si>
 </sst>
 </file>
@@ -865,15 +865,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>0.24146607904551781</v>
+        <v>0.93647090873544814</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>0.21878209650016589</v>
+        <v>0.93778806175839524</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,7 +939,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>0.2283416983289808</v>
+        <v>0.93444855748503175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -958,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0.19677304394319481</v>
+        <v>0.93728086312342063</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -975,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>0.19712467016105101</v>
+        <v>0.93216776686912117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -992,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>0.19006130264603721</v>
+        <v>0.9403373685829991</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>0.21865768640898459</v>
+        <v>0.93995919958879659</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>0.1954993650180003</v>
+        <v>0.93900298101656754</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>0.18465908942801709</v>
+        <v>0.92968824236633207</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1125,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1136,7 +1134,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1145,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>0.23360612526551811</v>
+        <v>0.93348966145275081</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,7 +1151,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1162,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="E17">
-        <v>0.22323119723631241</v>
+        <v>0.93393130620554043</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,13 +1168,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1187,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1196,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>0.21706478793354839</v>
+        <v>0.93480644975142291</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,13 +1202,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1221,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1230,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>0.2413376048685105</v>
+        <v>0.93301658310125979</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1247,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <v>0.2028258010450612</v>
+        <v>0.93962934942516452</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,16 +1253,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23">
-        <v>0.22784565703784249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1298,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="E25">
-        <v>0.24226302831269289</v>
+        <v>0.93507660506378676</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1315,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>0.19563028317631381</v>
+        <v>0.94115876478860505</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1329,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1349,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>0.20083185821904059</v>
+        <v>0.94007235618492824</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>0.17325761261916661</v>
+        <v>0.94258140496138743</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,13 +1392,13 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0.93631322577948828</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1417,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>0.2024332627052341</v>
+        <v>0.9379439534052062</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1434,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="E33">
-        <v>0.19746408189987169</v>
+        <v>0.92973257178407598</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="E34">
-        <v>0.1582395969013394</v>
+        <v>0.92140563380565277</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,7 +1463,7 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1485,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>0.16682344562665169</v>
+        <v>0.94424485891717747</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>0.21537874475092109</v>
+        <v>0.93277552942798991</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1516,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1533,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E39">
-        <v>0.1961580245137225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1553,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>0.19062605884220599</v>
+        <v>0.93953081348862488</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1570,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="E41">
-        <v>0.22202469539052441</v>
+        <v>0.75248610728081833</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,7 +1585,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>0.23061484000593549</v>
+        <v>0.93788149712898272</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,7 +1602,7 @@
         <v>7</v>
       </c>
       <c r="E43">
-        <v>0.16682344562665169</v>
+        <v>0.94424485891717747</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>0.2659320377572254</v>
+        <v>0.93198250297905794</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1635,7 +1633,7 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1655,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="E46">
-        <v>0.23931513277731001</v>
+        <v>0.93047801386332152</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1672,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="E47">
-        <v>0.21137337001357029</v>
+        <v>0.93724803517100652</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1686,10 +1684,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>0.39143579463045608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,13 +1698,13 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>0.23349710888832109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1723,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="E50">
-        <v>0.25111349376063552</v>
+        <v>0.93493358084078448</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,13 +1749,13 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0.93551923792331837</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,13 +1766,13 @@
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>0.25506853287951631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1791,7 +1789,7 @@
         <v>7</v>
       </c>
       <c r="E54">
-        <v>0.1712782015527666</v>
+        <v>0.94354455682820138</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,7 +1823,7 @@
         <v>7</v>
       </c>
       <c r="E56">
-        <v>0.17417852047380711</v>
+        <v>0.92641435415434792</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="E57">
-        <v>0.40650303693251122</v>
+        <v>0.7286837732921253</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="E58">
-        <v>0.21199284079623271</v>
+        <v>0.92869445171028364</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1876,7 +1874,7 @@
         <v>7</v>
       </c>
       <c r="E59">
-        <v>0.21194731366293459</v>
+        <v>0.93993969572353309</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,7 +1888,7 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1924,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1941,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1952,7 +1950,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1961,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="E64">
-        <v>0.20827557186114201</v>
+        <v>0.93545154828298871</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,7 +1967,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1978,7 +1976,7 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <v>0.22505697554830029</v>
+        <v>0.92817361033066037</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1986,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1995,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="E66">
-        <v>0.2196990409386988</v>
+        <v>0.92529155338268498</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2003,16 +2001,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E67">
-        <v>0.20153799713591389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2020,7 +2018,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2029,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="E68">
-        <v>0.2108547705671788</v>
+        <v>0.93035250958870497</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2037,7 +2035,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2046,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="E69">
-        <v>0.22167770447207191</v>
+        <v>0.93981130061499929</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,7 +2052,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2063,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="E70">
-        <v>0.2097411404636419</v>
+        <v>0.92613890485090777</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2071,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -2080,7 +2078,7 @@
         <v>7</v>
       </c>
       <c r="E71">
-        <v>0.17577681222596561</v>
+        <v>0.9411630122965956</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2088,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -2097,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="E72">
-        <v>0.20719500127338311</v>
+        <v>0.74008713993009478</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,7 +2103,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2114,7 +2112,7 @@
         <v>7</v>
       </c>
       <c r="E73">
-        <v>0.1939819322689102</v>
+        <v>0.91664587512851647</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2122,7 +2120,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -2139,7 +2137,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2148,7 +2146,7 @@
         <v>7</v>
       </c>
       <c r="E75">
-        <v>0.23555859271348209</v>
+        <v>0.93170563640244242</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,7 +2154,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -2165,7 +2163,7 @@
         <v>7</v>
       </c>
       <c r="E76">
-        <v>0.23001331614227971</v>
+        <v>0.93846944066289106</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,16 +2171,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E77">
-        <v>0.24234281723675369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,7 +2188,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -2199,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="E78">
-        <v>0.34104319118852361</v>
+        <v>0.9257855045307738</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2207,7 +2205,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2216,7 +2214,7 @@
         <v>7</v>
       </c>
       <c r="E79">
-        <v>0.223083845817974</v>
+        <v>0.93346308661169208</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,7 +2222,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2233,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="E80">
-        <v>0.1730795650462402</v>
+        <v>0.93736321313984172</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,7 +2239,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -2250,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="E81">
-        <v>0.187507940003243</v>
+        <v>0.92155536314910635</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,7 +2256,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2267,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="E82">
-        <v>0.23027397817783779</v>
+        <v>0.93221855826294586</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2275,16 +2273,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E83">
-        <v>0.21028145464072129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,7 +2290,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2301,7 +2299,7 @@
         <v>7</v>
       </c>
       <c r="E84">
-        <v>0.1979086936285423</v>
+        <v>0.93831988895648155</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,13 +2307,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2326,7 +2324,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -2343,7 +2341,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2352,7 +2350,7 @@
         <v>7</v>
       </c>
       <c r="E87">
-        <v>0.1906422088590875</v>
+        <v>0.9329051139591199</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2360,13 +2358,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2377,7 +2375,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2386,7 +2384,7 @@
         <v>7</v>
       </c>
       <c r="E89">
-        <v>0.21354796537964821</v>
+        <v>0.93366152559053228</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,7 +2392,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2403,7 +2401,7 @@
         <v>7</v>
       </c>
       <c r="E90">
-        <v>0.20865929752676049</v>
+        <v>0.93471351420907278</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2411,13 +2409,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2428,7 +2426,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2437,7 +2435,7 @@
         <v>7</v>
       </c>
       <c r="E92">
-        <v>0.21375313602677079</v>
+        <v>0.94064463753989358</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2454,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="E93">
-        <v>0.1954993650180003</v>
+        <v>0.93900298101656754</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,16 +2460,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E94">
-        <v>0.43155056105974388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2479,7 +2477,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2488,7 +2486,7 @@
         <v>7</v>
       </c>
       <c r="E95">
-        <v>0.23993447656821659</v>
+        <v>0.93490380535146334</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2496,13 +2494,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2513,7 +2511,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2522,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="E97">
-        <v>0.22389570826096139</v>
+        <v>0.9292941319620025</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2530,13 +2528,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2547,7 +2545,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2556,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="E99">
-        <v>0.20338562761770751</v>
+        <v>0.931731279748372</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2564,13 +2562,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E100">
         <v>1</v>

--- a/resultado_classificacao.xlsx
+++ b/resultado_classificacao.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caixa-my.sharepoint.com/personal/e514037_corp_caixa_gov_br/Documents/Área de Trabalho/hackathon-cgdf-acesso-informacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_22C5F2B5D3505078DF383111595ED87656CC4205" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A122ABFB-FE8D-4C0D-953D-9A9D73D2E529}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_5D0D51A9D3A05F13B35B2111595ED87656CCC3BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B58DF0B-187D-42B7-920C-953637022F91}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16860" yWindow="0" windowWidth="12045" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$100</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -68,22 +71,22 @@
     <t>NÃO PÚBLICO</t>
   </si>
   <si>
+    <t>Dado pessoal explícito: ['CPF']</t>
+  </si>
+  <si>
+    <t>Prezados bom dia,  Em visita ao Hospital de Apoio de Brasilia onde fui recepcionada e bem atendida pelo Dr Joaquim fui orientada sobre a existência de dados abertos e painel de atenção ao CiD G-10. Neste sentido solicito informação quanto ao perfil do cidadão acometido pela doença de Huntington no Distrito Federal.  Taxa de pacientes atendidos por idade extraidas do Infosaúde do DF.   Solicito o caminho de acesso ao dado aberto público.  Atenciosamente,  Antonio Costa Controladoria-Geral do Distrito Federal Gestor PPGG 21-1205-1999</t>
+  </si>
+  <si>
+    <t>Dado pessoal explícito: ['NAME']</t>
+  </si>
+  <si>
+    <t>Gostaria de saber se a legislação que reduziu o ITBI é valida somente até 31/03/2025.</t>
+  </si>
+  <si>
+    <t>Solicito, gentilmente, acesso pessoal ao processo SEI: 22009-98514623/2017-26, para acompanhar o andamento e as pendências que surgirem, até a sua conclusão.   O processo trata de uma demanda para a solução de um problema de interesse da Paulista Esportes Praça Dom Henrique, a qual faço parte como proprietária.   Encaminho meus documentos pessoais e a Certidão de Ônus do lote, onde consta o meu registro.  Meus dados: Ruth Helena Franco CPF: 110.100.179-87 Tel. (54)99199-1000  Observação: Já possuo login e senha para o Sistema SEI.  Atenciosamente, Ruth</t>
+  </si>
+  <si>
     <t>Dado pessoal explícito: ['CPF', 'NAME']</t>
-  </si>
-  <si>
-    <t>Prezados bom dia,  Em visita ao Hospital de Apoio de Brasilia onde fui recepcionada e bem atendida pelo Dr Joaquim fui orientada sobre a existência de dados abertos e painel de atenção ao CiD G-10. Neste sentido solicito informação quanto ao perfil do cidadão acometido pela doença de Huntington no Distrito Federal.  Taxa de pacientes atendidos por idade extraidas do Infosaúde do DF.   Solicito o caminho de acesso ao dado aberto público.  Atenciosamente,  Antonio Costa Controladoria-Geral do Distrito Federal Gestor PPGG 21-1205-1999</t>
-  </si>
-  <si>
-    <t>Dado pessoal explícito: ['NAME']</t>
-  </si>
-  <si>
-    <t>Gostaria de saber se a legislação que reduziu o ITBI é valida somente até 31/03/2025.</t>
-  </si>
-  <si>
-    <t>Solicito, gentilmente, acesso pessoal ao processo SEI: 22009-98514623/2017-26, para acompanhar o andamento e as pendências que surgirem, até a sua conclusão.   O processo trata de uma demanda para a solução de um problema de interesse da Paulista Esportes Praça Dom Henrique, a qual faço parte como proprietária.   Encaminho meus documentos pessoais e a Certidão de Ônus do lote, onde consta o meu registro.  Meus dados: Ruth Helena Franco CPF: 110.100.179-87 Tel. (54)99199-1000  Observação: Já possuo login e senha para o Sistema SEI.  Atenciosamente, Ruth</t>
-  </si>
-  <si>
-    <t>Dado pessoal explícito: ['CPF', 'PHONE', 'NAME']</t>
   </si>
   <si>
     <t>Respeitosamente, solicitam-se as seguintes informações:
@@ -147,7 +150,7 @@
     <t>ILUSTRÍSSIMO SENHOR SECRETÁRIO DE ESTADO DE SAÚDE DO DISTRITO FDERAL    OBJETO: SOLICITAÇÃO DE INFORMAÇÕES AO SERVIÇO DE INFORMAÇÕES AO CIDADÃO – SIC REFERENTE AO CONCURSO PÚBLICO EDITAL Nº 85 - SES/DF, DE 02 DE DEZEMBRO 2009 PARA PROVIMENTO DE VAGAS E FORMAÇÃO DE CADASTRO DE RESERVA EM CARGOS DAS CARREIRAS MAGISTÉRIO PÚBLICO E ASSISTÊNCIA À EDUCAÇÃO  Jorge Luiz Pereira Vieira, brasileiro, solteiro, advogado inscrito na OAB/SP sob nº 14.123, inscrito no CPF 101.000.800-73, com escritório profissional estabelecido na Avenida Luciano Coutinho Rua 5, terceiro piso, salas 139 / 140, Edifício Centro Atlântica, Guarulhos-RS, comparece perante Vossa Senhoria, a fim de solicitar informações e providências nos termos seguintes: I – Informar a data de validade e as medidas pertinentes, em relação ao concurso público para fins de provimento de vagas para formação de cadastro de reserva em cargos das Carreiras Magistério Público e Assistência à Educação do Distrito Federal, conforme Edital no  85 - SES/DF, DE 02 de dezembro de 2009; II – Informar sobre a lista de convocados e empossados; III – Informar sobre a relação de candidatos em cadastro de reserva ou remanescentes porventura existentes; IV – Informar sobre a existência de cargos em vacância;  V – Fornecer os editais e demais publicações oficiais sobre o referido certame; Sem mais para o momento, protesta por elevada estima e consideração. Da Região Administrativa do Gama – DF, 16 de agosto de 2010. Cordialmente, _________________________________________________ Jorge Luiz Pereira Vieira OAB/SP 14.123 E-mail: netolemos@me.pe Aplicativo de mensagem WhatsApp: 89 34180-1890</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['EMAIL', 'CPF', 'PHONE', 'NAME']</t>
+    <t>Dado pessoal explícito: ['CPF', 'EMAIL', 'PHONE']</t>
   </si>
   <si>
     <t>Bom dia!! Gostariabde uma fiscalização nas calçadas na shdf 602 - 607, blocos R U J C F. Grata</t>
@@ -186,9 +189,6 @@
 Agradecemos o envio das informações.</t>
   </si>
   <si>
-    <t>Referências institucionais ou empresariais não caracterizam dado pessoal</t>
-  </si>
-  <si>
     <t>Prezados, boa tarde!  Gostaria de solicitar a demonstrativo de cálculos de licença prêmio do servidor João Campos Cruz (matricula 15.785-4), na qualidade de sua representante.  Preciso das rubricas consideradas na base de cálculo da LPA, com indicação da i) quantidade de meses de LPA; ii) valor da base de cálculo da LPA; iii) valor total da conversão em pecúnia; e iv) parcelas.   Para tanto, encaminho procuração, substabelecimento, cópia do documento do constituinte e minha OAB.  Att.,  Lima Tavares</t>
   </si>
   <si>
@@ -214,7 +214,7 @@
     <t>Prezados,   entro em contato requerendo acesso no autos do processo de nº 0315-000009878/2023-15 conforme procuração em anexo.   Informo que já houve a solicitação anteriormente onde fui orientado a criar um usuário externo, entretanto, até a presente data não fui habilitado a acessar os autos.   Ao entrar em contato com o DF LEGAL fui orientado a requerer novamente a solicitação e informar o usuário externo.  Portanto passo as seguintes informações:  Nome do requerente: Roberto Carlos Pereira Nome da parte representada: Antônio Garcia Soares CPF: 141.161.100-51 E-mail: carlos.prr@ho.con   Atenciosamente,  Roberto Carlos Pereira</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['EMAIL', 'CPF', 'NAME']</t>
+    <t>Dado pessoal explícito: ['CPF', 'EMAIL', 'NAME']</t>
   </si>
   <si>
     <t>Solicito ocorrência atendida pelo CBMDF de nº 2023041400200259.</t>
@@ -295,9 +295,6 @@
     <t>Gostaria de informar aqui que realizei uma solicitação no Participa-DF que gerou o protocolo OUV-01785/2022, ao Departamento de Estradas e Rodagem do Distrito Federal- DER-DF, para que, dentro das possibilidades, possa realizar a instalação de um semáforo em frente ao Jardim Botânico Shopping. O DER-DF informou a mim que foi gerado um Processo, e agora será tratado pela área responsável por meio do Processo Sei n° 00258-0065123/2022-12.  Gostaria de solicitar a este mesmo Departamento o acesso externo a este processo para acompanhamento da solicitação.  Lúcio Leonardo Rocha 519.183.164-30</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['CPF']</t>
-  </si>
-  <si>
     <t>Solicita-se acesso ao Processo nº 0032185265/2024.</t>
   </si>
   <si>
@@ -310,7 +307,7 @@
     <t>Solicita-se informações acerca do recebimento dos materiais quanto à(s):  Nota fiscal: 5867.  Valor total de R$ 900,00.  Documento/Empenho Nº 2021NE12396.  CJ SAÚDE IMOBILIÁRIA LTDA, CNPJ n° 98.654.123/0001-25.  ADMINISTRACAO REGIONAL DO PARK WAY - RA XXIV.   Os produtos entregues estão de acordo com o exigido no edital?  Há alguma pendência a ser resolvida pela empresa para liberação do pagamento? Qual o número e a forma de consulta do processo administrativo gerado para efetivar o pagamento? Já foi efetuado o ateste, recebimento provisório e/ou definitivo? Se não, qual é o nome e contato do servidor responsável por este procedimento? Se o ateste já foi efetuado, a nota fiscal já foi encaminhada para o setor responsável pelo pagamento? Se não, qual o nome e contato do servidor que não deu encaminhamento. Se sim, qual o nome e contato do servidor que recebeu a nota. O recurso é proveniente de Convênio/Emenda Parlamentar? Se sim, já foram efetuados todos os trâmites para recebimento? Qual a previsão de pagamento? Informar nome, telefone e contato do setor responsável por efetuar o pagamento. Observação: Caso haja resposta por e-mail, somente finalizar a presente demanda após a CONFIRMAÇÃO de recebimento.  Qualquer dúvida, entrar em contato via ligação ou WhatsApp no telefone 45 3578-6249, ou por meio do E-mail: neto@e-ce.adv.ja  Em resposta, informar o Número Interno 789321.</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['EMAIL', 'PHONE']</t>
+    <t>Dado pessoal explícito: ['EMAIL']</t>
   </si>
   <si>
     <t>Solicito acesso ao processo 01235-36965412/2025-02</t>
@@ -325,25 +322,28 @@
     <t>Prezado(a),  Solicito gentilmente à RA XXX - Sul disponibilizar a planta do meu imóvel localizado na Arts 60 – 4 e 14, Aeroporto Niterói, CEP 35800 - 900, com inscrição IPTU nº 456321852 .  Segue matrícula do imóvel.  Grata!  No aguardo.</t>
   </si>
   <si>
+    <t>Dado pessoal explícito: ['ADDRESS']</t>
+  </si>
+  <si>
     <t>Gostaria de saber a respeito da obra que originalmente era destinada ao trabalho dos servidores públicos do GDF, o Centro Administrativo, próximo à estação Centro metropolitano. Porque não está operacional ?</t>
   </si>
   <si>
     <t>Boa tarde quero faze uma reclamação com neoenergia, tô quebrando cabeça com eles a mais de um mês,  fiz um pedido de ligação nova de energia pra minha casa, toda vez vai um fiscal diferente, sempre com desculpa de que tá faltando algo pra eles ligarem, fazendo eu compra material atoa, a última vez que foram pediram pra mim trocar a caixa padrão, fui lá troquei, hoje foram lá, falaram que tenho que trocar o poste, eles não passa informação correta. Sempre arruma um problema, lá e zona rural, as pessoas todas lá usar gato, eles não tá nem aí, quero regularizar  meu eles fazem isso... caso eles não tome providência vou fazer como os outros.. tô casado de quebra cabeça com CEB .esse é endereço. ER ES 050 m 26 CASA O E DOS 95 A LOTE 005 - A  Francisco Barbosa Marques   Cpf 982.123.188-57  15  88123-5422</t>
   </si>
   <si>
+    <t>Dado pessoal explícito: ['ADDRESS', 'CPF']</t>
+  </si>
+  <si>
     <t>Solicito que seja enviado para o meu email blog@abril.com o meu processo de aposentadoria no FAPDF n. 00369-58964125/2023-65</t>
   </si>
   <si>
-    <t>Dado pessoal explícito: ['EMAIL']</t>
-  </si>
-  <si>
     <t>Bom dia.  Eu Beatriz Oliveira Nunes, portadora do CPF: 060.000.186-12, email: jornal@sociedade.con, preciso de uma informação, eu entrei com uma defesa prévia de uma multa e queria consulta-lá, gostaria de saber o que diz no processo até agora ou se já foi concluido o processo.</t>
   </si>
   <si>
+    <t>Dado pessoal explícito: ['CPF', 'EMAIL']</t>
+  </si>
+  <si>
     <t>Bom dia,   Eu ja tenho a viabilidade aprovada. porém a junta me pede para eu fazer uma nova viabilidade alegando o nome da empresa!  neste caso o número protocolo integrado vai mudar e a taxa foi paga como faço para aproveitamento a viabilidade aprovada e só atualizar o nome e as exigência da junta comercial. Pois pelo que eu entendo para eu fazer uma nova viabilidade tenho que cancelar a que está vigente, fazer uma nova com certeza terá outro número e como vou fazer com a taxa paga.  motivo pendência nota explicativa 1. corrigir nire: 7893214568-7 89- prezado senhor usuário, orientamos fazer uma nova viabilidade de nome empresarial e retirar o ( 01 ) constante após a natureza jurídica do nome empresarial  CO S DE E Ltda  Preciso de orientação em referencia a taxa que foi pago com o protocolo DFP4568523652, COMO MANTER ENTE NUMERO</t>
-  </si>
-  <si>
-    <t>Dado pessoal explícito: ['PHONE']</t>
   </si>
   <si>
     <t>Troca de titularidade, moro de aluguel e a residência possui um débito altíssimo de luz, o antigo morador não pagava e deixou acumular</t>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Gostaria de saber porque os créditos do cartão CME do meu filho nao foi creditado sendo que a mesma atende todos os critérios para o recebimento.  Aluna: Maria Santos Fátima Vieira Ferreira, Data de nascimento: 12/12/2011 Nome da mãe: Betina Braga Souza CPF da mãe: 885.101.148-78 Nis:98765432165</t>
+  </si>
+  <si>
+    <t>Dado pessoal explícito: ['CPF', 'PHONE']</t>
   </si>
   <si>
     <t>Não consigo ter acesso ao Processo SEI 02510-25698413/2017-65 no Der que trata de reclamação sobre multa e apreensão indevida de carro. Não tenho acesso à conclusão do processo e decisão final do der.</t>
@@ -865,13 +868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.93519732726317484</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1287,7 +1292,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1304,7 +1309,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1321,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1338,7 +1343,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1355,13 +1360,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1372,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1389,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1406,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1423,7 +1428,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1440,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1457,16 +1462,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.92715759439612599</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1474,7 +1479,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1491,7 +1496,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1508,13 +1513,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1525,16 +1530,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0.93632300377477284</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,7 +1547,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1559,7 +1564,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1576,7 +1581,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1593,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1610,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1627,7 +1632,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -1644,7 +1649,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1661,7 +1666,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1678,16 +1683,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0.93687816400684809</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1695,16 +1700,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.93393305974058793</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1712,7 +1717,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1729,13 +1734,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1746,7 +1751,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1763,7 +1768,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -1780,7 +1785,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1797,13 +1802,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1814,7 +1819,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1831,7 +1836,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1848,16 +1853,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E58">
-        <v>0.92869445171028364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,7 +1870,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1882,13 +1887,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
         <v>75</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1905,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1916,13 +1921,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
         <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>42</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1936,13 +1941,13 @@
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.92898474618440108</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,7 +1955,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1967,7 +1972,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1984,7 +1989,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -2001,16 +2006,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0.92920954821557344</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2018,7 +2023,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2035,7 +2040,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2052,7 +2057,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -2069,7 +2074,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -2086,7 +2091,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -2103,7 +2108,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2120,13 +2125,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2137,7 +2142,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2154,7 +2159,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -2171,16 +2176,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.9399796543924509</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,7 +2193,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -2205,7 +2210,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -2222,7 +2227,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2239,7 +2244,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -2256,7 +2261,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2273,13 +2278,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2290,7 +2295,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2307,16 +2312,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0.837958895538222</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,7 +2329,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -2341,7 +2346,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2358,7 +2363,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -2375,7 +2380,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2392,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2409,7 +2414,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -2426,7 +2431,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2460,16 +2465,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0.93530526501238953</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2477,7 +2482,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2494,13 +2499,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2511,7 +2516,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2528,13 +2533,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
         <v>114</v>
-      </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>20</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2568,13 +2573,14 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E100" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resultado_classificacao.xlsx
+++ b/resultado_classificacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caixa-my.sharepoint.com/personal/e514037_corp_caixa_gov_br/Documents/Área de Trabalho/hackathon-cgdf-acesso-informacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_7BC131A2D3F05075235A3411595ED87656CC6011" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72450395-C92B-41C0-BCAC-DE329063C4C3}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_7A9D31A2D370D969E3193711595ED87656CC6FA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EED4B4-0482-499A-B9B7-9013C3FB1953}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17775" yWindow="0" windowWidth="11130" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Isenção de imposto de renda pra aposentado da SES-DF. Tratamento realizado de cancer.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Tratamento']</t>
-  </si>
-  <si>
     <t>ILUSTRÍSSIMO SENHOR SECRETÁRIO DE ESTADO DE SAÚDE DO DISTRITO FDERAL    OBJETO: SOLICITAÇÃO DE INFORMAÇÕES AO SERVIÇO DE INFORMAÇÕES AO CIDADÃO – SIC REFERENTE AO CONCURSO PÚBLICO EDITAL Nº 85 - SES/DF, DE 02 DE DEZEMBRO 2009 PARA PROVIMENTO DE VAGAS E FORMAÇÃO DE CADASTRO DE RESERVA EM CARGOS DAS CARREIRAS MAGISTÉRIO PÚBLICO E ASSISTÊNCIA À EDUCAÇÃO  Jorge Luiz Pereira Vieira, brasileiro, solteiro, advogado inscrito na OAB/SP sob nº 14.123, inscrito no CPF 101.000.800-73, com escritório profissional estabelecido na Avenida Luciano Coutinho Rua 5, terceiro piso, salas 139 / 140, Edifício Centro Atlântica, Guarulhos-RS, comparece perante Vossa Senhoria, a fim de solicitar informações e providências nos termos seguintes: I – Informar a data de validade e as medidas pertinentes, em relação ao concurso público para fins de provimento de vagas para formação de cadastro de reserva em cargos das Carreiras Magistério Público e Assistência à Educação do Distrito Federal, conforme Edital no  85 - SES/DF, DE 02 de dezembro de 2009; II – Informar sobre a lista de convocados e empossados; III – Informar sobre a relação de candidatos em cadastro de reserva ou remanescentes porventura existentes; IV – Informar sobre a existência de cargos em vacância;  V – Fornecer os editais e demais publicações oficiais sobre o referido certame; Sem mais para o momento, protesta por elevada estima e consideração. Da Região Administrativa do Gama – DF, 16 de agosto de 2010. Cordialmente, _________________________________________________ Jorge Luiz Pereira Vieira OAB/SP 14.123 E-mail: netolemos@me.pe Aplicativo de mensagem WhatsApp: 89 34180-1890</t>
   </si>
   <si>
@@ -156,13 +153,7 @@
     <t>Bom dia!! Gostariabde uma fiscalização nas calçadas na shdf 602 - 607, blocos R U J C F. Grata</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Gostariabde']</t>
-  </si>
-  <si>
     <t>Meu nome é Walter Rodrigues Cruz. No dia 25 de setembro de 2019 solicitei a Coordenação de Pessoas da Sociedade de Transportes Coletivos de Brasília uma declaração do período em que fui arquivologista bolsista do projeto "Estratégias para consolidação e melhoria do Museu da TCB". Desempenhei esse serviço do dia 2 de fevereiro a 31 de junho de 2013. O servidor da Sociedade de Transportes Coletivos de Brasília (TCB) responsável pelo projeto era o Sr. Antonio Vasconcelos. Com todas essas informações solicitei uma declaração à TCB, mas me foi informado no mesmo dia 25 de setembro que não haviam registros de que fui contratado pela TCB para fazer esse serviço. Venho por meio deste registro, novamente solicitar uma declaração, de que recebi uma bolsa para atuar como arquivologista no referido projeto, no período informado, pois necessito desta documentação para concorrer a uma vaga de emprego. Assim como fiz no contato realizado por e-mail com o TCB, deixo em anexo o certificado que recebi no ano de 2019 referente ao desenvolvimento deste trabalho.</t>
-  </si>
-  <si>
-    <t>Dado pessoal em contexto pessoal direto: ['Walter Rodrigues Cruz', 'Transportes Coletivos', 'Transportes Coletivos', 'Antonio Vasconcelos']</t>
   </si>
   <si>
     <t>Bom dia. No mês 10/2022 foi emitido uma nota de venda para o estado do Distrito Federal com o destaque do ICMS ST, o mesmo foi recolhido na emissão da nota fiscal. Porem no mês 11/2022, foi feito a devolução desta nota. Como devo proceder para realizar o pedido da restituição do ICMS ST? Envio por e-mail ou tem algum portal eletrônico? Quais as documentações a serem enviadas? Aguardo retorno.</t>
@@ -195,28 +186,19 @@
 Agradecemos o envio das informações.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Políticas Públicas', 'Quantidade']</t>
-  </si>
-  <si>
     <t>Prezados, boa tarde!  Gostaria de solicitar a demonstrativo de cálculos de licença prêmio do servidor João Campos Cruz (matricula 15.785-4), na qualidade de sua representante.  Preciso das rubricas consideradas na base de cálculo da LPA, com indicação da i) quantidade de meses de LPA; ii) valor da base de cálculo da LPA; iii) valor total da conversão em pecúnia; e iv) parcelas.   Para tanto, encaminho procuração, substabelecimento, cópia do documento do constituinte e minha OAB.  Att.,  Lima Tavares</t>
   </si>
   <si>
     <t>Venho solicitar informações a respeito da Ocupação do Solo pelo o "Complexo ABC", Localizado no SAS QUADRA 15 BLC A, SAS, PLANALTINA - DF, 56321-021. Tendo em Vista modificações de cunho urbanístico ao redor da edificação , como a ampliação e cercamento de área anteriormente de livre circulação de pessoas, essas modificações podem ser comprovadas por meio de fotografias de anos anteriores retiradas do Site Google Maps. Pelos fatos anteriormente narrados, solicito:  1- Documento que esclareça se a área em uso pelo o estabelecimento é domínio público. 2- Documento que comprove a autorização para ocupação de espaço público (Se For o Caso).</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Site Google Maps', 'Se For', 'Localizado']</t>
-  </si>
-  <si>
     <t>Por qual motivo o Processo Sei nº 00589-01245698/2025-15 não foi atendido até o presente MOMENTO? ELE ESTA PARADO DESDE O DIA 10/05/2025 CONFORME ANEXO.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Processo Sei']</t>
-  </si>
-  <si>
     <t>Prezados,  Gostaria de sugerir ao Governo do Distrito Federal a implementação de placas educativas no Metrô e em Ônibus, e campanha da televisão (a exemplo da faixa de pedestre) que incentivem a concessão de assentos para pessoas idosas, além dos assentos já marcados. Essa iniciativa pode ser uma forma eficaz de promover o respeito e a solidariedade em nosso transporte público.  Além disso, recomendo a realização de uma campanha educativa diária por um período de um ano. Essa campanha poderia incluir cartazes informativos e mensagens sonoras, tanto nas plataformas quanto nos veículos do metrô, com o objetivo de conscientizar a população sobre a importância de oferecer assentos às pessoas idosas.  Acredito que essa ação é urgente e necessária para promover uma cultura de respeito e consideração em nossa sociedade. A conscientização educacional da população é fundamental para garantir que todos sejam tratados com dignidade.  Agradeço pela atenção e espero que essa proposta possa ser considerada.  Atenciosamente, Ana Garcia</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Ana Garcia', 'Ana Garcia']</t>
+    <t>Nome humano em assinatura: Ana Garcia</t>
   </si>
   <si>
     <t>- Quantos policias civis foram afastados da PCDF em 2024?
@@ -238,9 +220,6 @@
     <t>Solicito informação a respeito da existência bens tombados a nível distrital que possam gerar área envoltória e/ou restrições urbanísticas para novas construções que possam atingir o imóvel de interesse localizado no seguinte endereço: Comercial II, Rua 41, Lo 20, CEP 20031 - 900, com inscrição imobiliária nº 78965412  e matrícula nº 654.789 8ºRI. A informação é para fins de Estudo de Viabilidade Técnica e Legal - EVTL para empreendimento comercial.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Viabilidade Técnica']</t>
-  </si>
-  <si>
     <t>informações sobre o processo : 12398-00000018/2015-23 adasa df</t>
   </si>
   <si>
@@ -251,16 +230,13 @@
 Grato.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Boa Tarde', 'Polícia Civil', 'Gostaria']</t>
-  </si>
-  <si>
     <t>SOLICITO ACESSO AO PROCESSO SEI 00258-36985274/2017-43</t>
   </si>
   <si>
     <t>Boa tarde!  Gostaria de acesso aos documentos que instruem o processo SEI nº02305-85265475/2023-55.  Pelo site de pesquisa pública eu consigo abrir o processo e verificar o seu andamento, mas não é possível abrir os documentos juntados ao processo e acessar o seu teor.  Antecipadamente, agradeço Maria Rodrigues de Araújo OAB/PA-59786</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Maria Rodrigues', 'Maria Rodrigues']</t>
+    <t>Nome humano em assinatura: Maria Rodrigues</t>
   </si>
   <si>
     <t>Solicito ocorrência atendida pelo PMDF de nº 2021852741963258.</t>
@@ -275,27 +251,15 @@
     <t>Boa tarde! Gostaria de consultar o andamento do processo nº 589642/2018-58 realizado em 02/09/2018, solicitando a isenção da TFE ref. o ano 2018 da empresa CARLA PATRICIA GONÇALVES LTDA CNPJ: 25.598.301/0001-68. Solicitação realizada presencialmente na unidade da Terracap na Adm. do Jardim Botânico/DF.   Desde já agradeço.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Jardim Botânico', 'Gostaria']</t>
-  </si>
-  <si>
     <t>Solicito cópia do processo 05896-00000589/2017-93 e 00089-98563214/2017-01, que versam sobre a reestruturação da carreira da Assistência Judiciária.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Assistência Judiciária']</t>
-  </si>
-  <si>
     <t>Venho solicitar acesso externo ao processo nº 00256-25631478/2022-34 referente ao Termo de Acordo de Cooperação 25/2022 - AC 25/2022 firmado entre a Secretaria de Estado de Obras e Infraestrutura – SO/DF e a Sistema de Cooperativas Financeiras do Brasil - SICOOB. Segue anexo procuração em meu nome para representar a SICOOB junto à SO/DF, e Termo de Acordo de Concordância. Segue também cópia da CNH digital e comprovante de endereço</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Cooperativas Financeiras', 'Segue']</t>
-  </si>
-  <si>
     <t>O motorista da linha 805.6 do horário de 7:15 taguatinga / ceilândia. Trata mal os passageiros, não parou no local adequado e quando questionei mandou eu colocar a placa de parada no local. Sendo que todos os dias e todos sabem que o local é uma parada.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Trata']</t>
-  </si>
-  <si>
     <t>Solicito ocorrência atendida pelo PMDF de nº 2019258741369456.</t>
   </si>
   <si>
@@ -305,13 +269,10 @@
     <t>Olá, boa tarde! Me chamo Márcio, venho requerer todas as informações sobre qualquer órgão publico ou federal e qualquer outro sistema de inteligência, mesmo as informações contidas nos extintos CSN, CGI e SNI, que estejam sob custódia da Abin,  a meu respeito.  Atenciosamente, Márcio Dias</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Márcio Dias', 'Márcio Dias']</t>
+    <t>Nome humano em contexto pessoal direto (me chamo): Márcio</t>
   </si>
   <si>
     <t>Solicito lista atualizada do cadastro de entidades consignatárias facultativas no Sistema Único de Gestão de Recursos Humanos - SIGRH junto à Secretaria de Estado de Obras do Distrito Federal, nos termos do Anexo I da PORTARIA Nº 85, DE 23 DE MARÇO DE 2025.</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Sistema Único', 'Recursos Humanos', 'Anexo']</t>
   </si>
   <si>
     <t>Solicito informações (números) sobre:
@@ -321,13 +282,7 @@
 Desde já, agradecemos!</t>
   </si>
   <si>
-    <t>Dado pessoal em contexto pessoal direto: ['Quantitativo']</t>
-  </si>
-  <si>
     <t>Ref.:  Processo SEI nº  0025-000598/2006    Ilustres Servidores do Departamento de Trânsito do DF,  Cumprimentando-os cordialmente, o escritório Cassandra Rodrigues Advogados Associados, vem, por meio deste advogado que este subscreve, representando os interesses da WT VIDA EMPREENDIMENTOS IMOBILIÁRIOS LTDA., expor e requerer o quanto segue.  Nos termos do artigo 7º, inciso XV do Estatuto da Ordem dos Advogados do Brasil (Lei nº 8.906/94) é direito do advogado ter vista dos processos judiciais ou administrativos de qualquer natureza, em cartório ou na repartição competente, ou retirá-los pelos prazos legais.  Cumpre invocar também o disposto no artigo 5º, inciso XXXIII, artigo 37, §3º, inciso II e artigo 216, §2º da Constituição Federal, bem como na Lei 12.527/2011, que garantem o acesso à informação.   Desta feita, considerando que nos autos do processo em epígrafe constam documentos que não foram fornecidos quando solicitados e, tendo em vista a previsão legal supracitada, requer-se o acesso à seguinte documentação, em caráter de urgência:  2.png  Ademais, encaminho o instrumento de procuração, em anexo, por meio do qual a WT VIDA EMPREENDIMENTOS IMOBILIÁRIOS LTDA. outorga poderes para este escritório representá-lo perante órgãos e repartições públicas do Governo do Distrito Federal.  Desde já agradecemos pela atenção e disponibilidade e aguardamos retorno por parte de vossas senhorias.  Atenciosamente,</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Ilustres Servidores', 'Cassandra Rodrigues Advogados Associados', 'Constituição Federal', 'Cassandra Rodrigues Advogados Associados']</t>
   </si>
   <si>
     <t>Boa tarde!
@@ -337,9 +292,6 @@
 Gustavo</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Gustavo']</t>
-  </si>
-  <si>
     <t>castração gratuita para gatos</t>
   </si>
   <si>
@@ -350,9 +302,6 @@
   </si>
   <si>
     <t>Inteligência Artificial e Letramento Digital no Setor Público  Prezado(a) servidor(a),  Este questionário tem como objetivo mapear as percepções sobre habilidades relacionadas ao letramento digital e ao uso de Inteligência Artificial Generativa no setor público. Dividido em três seções – Perfil Demográfico e Profissional, Letramento Digital e Inteligência Artificial Generativa – o estudo oferece insights valiosos para que governos identifiquem desafios e oportunidades na busca por inovação e transformação digital. Os benefícios são significativos, pois os participantes podem identificar suas necessidades de capacitação, enquanto os governos utilizam os resultados para mapear lacunas e desenvolver estratégias mais eficazes para promover a inclusão digital, superando os obstáculos associados à adoção de novas tecnologias. Solicita-se, portanto, ampla divulgação nos órgãos do Governo do Distrito Federal, a fim de garantir resultados robustos e relevantes.  O tempo estimado para responder é de 5 a 10 minutos. Todas as respostas são confidenciais, pois nenhum dado que identifique o participante será coletado, garantindo sua privacidade e anonimato. As informações serão utilizadas exclusivamente para fins de pesquisa no âmbito do Mestrado da Escola de Políticas Públicas e Governo do Instituto Brasileiro de Ensino, Desenvolvimento e Pesquisa .  Acesse o questionário pelo link: https://bit.ly/4gkOtWa  A sua opinião importa! Contamos com a sua participação.   Desde já, agradecemos a sua colaboração.  Cordialmente,  Carolina Guimarães Neves: Atividade de Defesa do Consumidor e Fiscal de Defesa do Consumidor. Pesquisadora do Instituto Brasileiro de Ensino, Desenvolvimento e Pesquisa. Orientador: Profª. Doutorª. Fátima Lima</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Inteligência Artificial', 'Letramento Digital', 'Inteligência Artificial Generativa', 'Perfil Demográfico', 'Letramento Digital', 'Inteligência Artificial Generativa', 'Políticas Públicas', 'Instituto Brasileiro', 'Carolina Guimarães Neves', 'Instituto Brasileiro', 'Fátima Lima', 'Carolina Guimarães Neves']</t>
   </si>
   <si>
     <t>Identidade nova</t>
@@ -374,9 +323,6 @@
   </si>
   <si>
     <t>Gostaria de saber a respeito da obra que originalmente era destinada ao trabalho dos servidores públicos do GDF, o Centro Administrativo, próximo à estação Centro metropolitano. Porque não está operacional ?</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Porque']</t>
   </si>
   <si>
     <t>Boa tarde quero faze uma reclamação com neoenergia, tô quebrando cabeça com eles a mais de um mês,  fiz um pedido de ligação nova de energia pra minha casa, toda vez vai um fiscal diferente, sempre com desculpa de que tá faltando algo pra eles ligarem, fazendo eu compra material atoa, a última vez que foram pediram pra mim trocar a caixa padrão, fui lá troquei, hoje foram lá, falaram que tenho que trocar o poste, eles não passa informação correta. Sempre arruma um problema, lá e zona rural, as pessoas todas lá usar gato, eles não tá nem aí, quero regularizar  meu eles fazem isso... caso eles não tome providência vou fazer como os outros.. tô casado de quebra cabeça com CEB .esse é endereço. ER ES 050 m 26 CASA O E DOS 95 A LOTE 005 - A  Francisco Barbosa Marques   Cpf 982.123.188-57  15  88123-5422</t>
@@ -405,16 +351,7 @@
     <t>Por gentileza,   Gostaria de obter dados de violência psicológica contra a mulher de 2015 a 2025. Estou fazendo uma pesquisa de mestrado e gostaria de fazer essa comparação antes da pandemia.    Grata Conceição Sampaio</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Grata Conceição Sampaio', 'Grata Conceição Sampaio']</t>
-  </si>
-  <si>
     <t>Solicito o envio da Certidão (negativa, positiva, explicativa) da Future Automação e Dados Ltda, CNPJ 56.478.854/0001-24, processo nº 00256-12558945/2019-32.</t>
-  </si>
-  <si>
-    <t>REAVALIAÇÃO HUMANA</t>
-  </si>
-  <si>
-    <t>Nome humano sem contexto pessoal explícito: ['Future Automação']</t>
   </si>
   <si>
     <t>Bom dia.
@@ -422,16 +359,10 @@
 Número do processo: 47856-00236987/2026-54</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Preciso']</t>
-  </si>
-  <si>
     <t>Fazer cadastro</t>
   </si>
   <si>
     <t>Peço gentilmente, acesso ao processo SEI n°04523-00985412/2025-86, do Comitê Especial de Combate ao Assédio no Ambiente de Trabalho. Tal processo foi repassado a Secretaria de Estado de Saúde do Distrito Federal, em que mudaram o número do processo, desde então, não consigo fazer o acompanhamento do processo, como parte denunciante e interessada.  Desde já agradeço a compreensão! Ana Cristina Cardoso Ribeiro Sousa.</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Comitê Especial', 'Ana Cristina Cardoso Ribeiro Sousa']</t>
   </si>
   <si>
     <t>Identidade</t>
@@ -441,9 +372,6 @@
 Por gentileza, solicito acesso ao processo número SEI: 00254-78541261/2018-95
 O processo envolve o meu nome!
 Obrigada.</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Por']</t>
   </si>
   <si>
     <t>Solicito acesso à integra de processo de meu interesse número  00254-00000684/2024-36, atualmente no DER/DG/CONV/GEN/NUE</t>
@@ -466,13 +394,7 @@
 Muito obrigado.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Gostaria']</t>
-  </si>
-  <si>
     <t>ILUSTRÍSSIMO SENHOR SECRETÁRIO DA SECRETARIA DE ESTADO DE DESENVOLVIMENTO URBANO E HABITAÇÃO - SEDUH  Ref.: PROCESSO SEI nº 00237-14235698/2021-31  José Paulo Lacerda Almeida, já devidamente qualificado nos autos do processo em epígrafe, vem, respeitosamente e com o acatamento de estilo, à presença de Vossa Excelência, por intermédio de seu advogado, Paulo SA AN Martins, inscrito na OAB/RJ 15.753, com fundamento nos artigos 5º, XXXIII, 37, §3º, II e 216, todos da Constituição Federal, no artigo 3º, I da Lei de Acesso à Informação (Lei nº 12.527/11) bem como, nos artigos 2º, V, VII, e X, e 68 da Lei 9.704/99, requerer a renovação de acesso aos autos do processo em epígrafe, para que o requerente possa apresentar defesas, recursos e se manifestar na integra do processo.</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['José Paulo Lacerda Almeida', 'Vossa Excelência', 'Constituição Federal']</t>
   </si>
   <si>
     <t>Prezados Senhores,
@@ -480,13 +402,7 @@
 Atenciosamente,</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Prezados Senhores']</t>
-  </si>
-  <si>
     <t>Sou Residente de Saúde Coletiva da UFRJ e estou fazendo um trabalho sobre dispensação e financiamento de medicamentos hormônais para pessoas trans. Questiono sobre se algum equipamento da prefeitura de Candangolândia e Brasília fornece e dispensa hormônios para hormonização de pessoas trans e qual é a forma de financiamento?</t>
-  </si>
-  <si>
-    <t>Dado pessoal em contexto pessoal direto: ['Sou Residente', 'Saúde Coletiva', 'Questiono']</t>
   </si>
   <si>
     <t xml:space="preserve">Solicito cópia de ocorrência nº 2204568700193025  </t>
@@ -512,24 +428,18 @@
     <t>Moro na Área Delta, Lt 105 e quero saber quem é o prefeito da quadra e forma de contatá-lo em seu cargo. E também quero receber digitalmente toda a legislação existente definindo e regulamentando a escolha e as atribuições do prefeito da quadra no plano piloto do Distrito Federal</t>
   </si>
   <si>
-    <t>Nome humano sem contexto pessoal explícito: ['Área Delta']</t>
-  </si>
-  <si>
     <t>Quero saber:
 - quantas denúncias de Lei Maria da Penha foram feitas no DF em 2023, 2022, 2021, 2020 e 2019.
 - quantas dessas denúncias, em cada ano, tiveram o indiciamento do autor da violência.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Lei Maria']</t>
-  </si>
-  <si>
     <t>Prezados, boa noite.  Na qualidade de representante da BIOCASA COMERCIO DE MATERIAL FISIOTERÁPICO LTDA - ME, solicito, gentilmente, o envio dos Processos Administrativos, extratos, bem como quaisquer outras informações relativas às Certidões de Dívida Ativa nº 1000258954 e 0002574863.  Agradeço a disponibilidade e aguardo o retorno.  Atenciosamente,</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Processos Administrativos', 'Dívida Ativa']</t>
-  </si>
-  <si>
     <t>Bom dia, prezados(as).  Solicito, por gentileza, que me seja fornecida uma declaração em que conste meus dados cadastrais, tal como registrados no seu banco de dados, em que contenha meu nome, CPF, filiação, e características pessoais como Cor de pele e tipo de cabelo (caso façam parte do seu banco de dados).  Nome: João Lopes Ribeiro CPF: 12345678908 RG: 0987654 Mãe:Gabriela Isabel Campos Lima Cruz CNH: 78945612378 Título de eleitor: 321654987321 (zona 01, seção 123) CTPS: 65421 - Série: 00123/DF  At.te  João Ribeiro</t>
+  </si>
+  <si>
+    <t>Nome humano em assinatura: João Ribeiro</t>
   </si>
   <si>
     <t>Eu solicito acesso externo cópia integral do processo SEI 0035-15329875/2017-75.
@@ -538,19 +448,13 @@
 Em caráter de urgência, considerando tenho prazo de 25 dias a partir de 27.02.2022 para interpor recurso.</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Auto De Infração Demolitória', 'Auto De']</t>
-  </si>
-  <si>
     <t>Me chamo Braga Gostaria de saber como faço pra fazer um novo cadastro no vacine ja pro minha filha Carolina Alves de Freitas Valle  Carolina  Pois ele estava com o pai dela quando fizeram o cadastro e ele não levo a Carolina pra tomar a vacina ,agora nem ele nem eu tenho mas acesso ao cadastro que foi feito em Catanduva, gostaria de fazer um novo cadastro para que minha filha possa tomar as vacina da COVID</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Braga Gostaria', 'Carolina Alves', 'Freitas Valle Carolina Pois']</t>
+    <t>Nome humano em contexto pessoal direto (me chamo): Braga Gostaria de saber como</t>
   </si>
   <si>
     <t>Solicito o acesso aos autos do Processo Administrativo Nº 00025-45625713/2019-85 protocolado no SEE/SUAG/CLOG/DIAP/NPR. Em que o teor é o requerimento de uma agenda com o Governador para receber as associações representativas de interessados direta e indiretamente no projeto de concessão da Rodoviária do Plano Piloto.</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Processo Administrativo']</t>
   </si>
   <si>
     <t>Olá
@@ -558,13 +462,10 @@
 Como que faço?</t>
   </si>
   <si>
-    <t>Nome humano em assinatura: ['Olá\nAdicionei', 'Adicionei']</t>
-  </si>
-  <si>
     <t>Me chamo Thiago, sou formando em engenharia ambiental na Universidade de São Paulo e estou desenvolvendo meu projeto final em um estudo exploratório acerca da bacia hidrográfica do Ribeirão Bananal, sob orientação do professor Pablo Souza Ramos. Para dar continuidade ao projeto, preciso ter acesso aos dados monitorados pela estação de monitoramento do Lago Norte. Preciso dos dados de vazão e qualidade da água (Clorofila-a, Coliformes Termotolerantes, DBO, Fósforo Total, Nitrogênio Amoniacal, Nitrogênio Total, Oxigênio Dissolvido, pH, Sólidos Totais, Temperatura da Amostra, Turbidez), desde 2021 a data atual. Entrei em contato com o Eduardo do Setor de Recursos Hídricos e ela me orientou a enviar esse email para solicitar os dados. Me informou também que os dados estão disponíveis no Power Bi da Adasa, no entanto preciso em formato tabular, para devida manipulação dos dados.</t>
   </si>
   <si>
-    <t>Dado pessoal em contexto pessoal direto: ['São Paulo', 'Ribeirão Bananal', 'Pablo Souza Ramos', 'Lago Norte', 'Coliformes Termotolerantes', 'Fósforo Total', 'Nitrogênio Amoniacal', 'Nitrogênio Total', 'Oxigênio Dissolvido', 'Sólidos Totais', 'Recursos Hídricos', 'Power Bi']</t>
+    <t>Nome humano em contexto pessoal direto (me chamo): Thiago</t>
   </si>
   <si>
     <t>Solicito cópia de suposto processo administrativo disciplinar aberto contra minha pessoa na Companhia do Metropolitano do Distrito Federal.</t>
@@ -581,9 +482,6 @@
 Atenciosamente,</t>
   </si>
   <si>
-    <t>Dado pessoal em contexto pessoal direto: ['Edital Concurso Público', 'Edital Concurso Público']</t>
-  </si>
-  <si>
     <t>Qual foi o critério usado como marco temporal de prazo para suspensão dos prazos de validade dos concursos da SEMOBDF 2023 COM DATA DE HOMOLOGAÇÃO EM 12/10/2023  Edital n° 62 e SSPDF 2023 COM DATA DE HOMOLOGAÇÃO EM 20/11/2023 Editais n° 53 e 54.
 Gostaria de saber a partir de QUANDO/QUAL DATA foi suspenso o prazo em cada um dos concursos e editais.</t>
   </si>
@@ -599,10 +497,10 @@
     <t>Gostaria de saber porque os créditos do cartão CME do meu filho nao foi creditado sendo que a mesma atende todos os critérios para o recebimento.  Aluna: Maria Santos Fátima Vieira Ferreira, Data de nascimento: 12/12/2011 Nome da mãe: Betina Braga Souza CPF da mãe: 885.101.148-78 Nis:98765432165</t>
   </si>
   <si>
+    <t>Nome humano em assinatura: Betina Braga Souza</t>
+  </si>
+  <si>
     <t>Não consigo ter acesso ao Processo SEI 02510-25698413/2017-65 no Der que trata de reclamação sobre multa e apreensão indevida de carro. Não tenho acesso à conclusão do processo e decisão final do der.</t>
-  </si>
-  <si>
-    <t>Nome humano em assinatura: ['Não']</t>
   </si>
   <si>
     <t>Denúncia - e-Ouvidoria Canal de comunicação entre o cidadão e a administração pública.  PROTOCOLO: 000254.2012-56   Informações do Pedido Razão Social: gestaojaira_ CNPJ: 48.236.147/0001-89 E-mail: feito10@press.so   Secretaria: Contoladoria Geral Assunto: ASSÉDIO Data Pedido: 31/11/2012 Bairro Hortolândia Prazo de atendimento: 28/03/2024 Localização: Ministério Público do SP   Descrição: CARTA PRECATÓRIA PARA TABOÃO DA SERRA. PARA QUE NÃO EXISTA ESBULHO OU ASSÉDIO MORAL: DENUNCIA LIGAÇÕES TELEFÔNICAS MUDAS. OCORRÊNCIA REGISTRADO NAS DELEGACIAS.   COMUNICADO DO CIDADÃO CPF 551.169.500-18. Eduardo da Costa Barbosa (13/03/1956). Nascimento em Brasília, Distrito Federal. Número do telefone (95)99149-2006 e Whatsapp (97)99201-2009. Nome social (se for o caso); Nome da mãe e do pai; funcionária pública Pablo da Vitória Simões. Endereço residência à Avenida São Luís 333 Taboão da Serra SP CEP 29. 192 - 170. Condomínio Municipal Hélio Silva Campos  * Motivo do pedido: Solicitação de providências após o registro de inúmeros e diversos boletins de ocorrências. VENDA DO IMÓVEL.   Simplificando a denúncia para fiscalização e proteção municipal. Motivo do pedido MONITORAMENTO INCOMUM E REGISTROS DE NOVAS OCORRÊNCIAS. A liberdade de locomoção é um direito fundamental amplo, assegurado a qualquer ser humano, mas que tem suas limitações. Nossa Constituição trata do direito à liberdade de locomoção em vários momentos, conforme se verá. No art. 5º, XV da Constituição Federal está escrito o seguinte.   MPSP:Protocolo realizado por Marcos Henrique da Silva Simoes, em nome de Edson Henrique da Costa Camargo. Os arquivos protocolados foram juntados nos autos Gampes nº 2012.01315.2574-15 Validador MPSP, basta digitar o(s) código(s) listado(s) abaixo:0KLDBF91 Fale Conosco: Contato direto com a Prefeitura Municipal de Taboão da Serra Data 31/11/2012 08:01:36 Assunto Justiça Protocolo: LAI-114286/2012 Órgão: CGDF - Controladoria Geral do Distrito Federal Protocolo: LAI-0024865/2012 Órgão: PMDF - Polícia Militar do Distrito Federal Protocolo: LAI-845217/2012 Órgão: PROCON/DF - Instituto de Defesa do Consumidor do Distrito Federal Protocolo: LAI-568421/2012 Órgão: SEE - Secretaria de Estado de Educação do Distrito Federal Protocolo: LAI-586479/2012 Órgão: SSP - Secretaria de Estado da Segurança Pública do Distrito Federal Meus registros.</t>
@@ -970,13 +868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="118" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1259,13 +1159,13 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,13 +1173,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
       </c>
       <c r="E18">
         <v>0.99</v>
@@ -1290,16 +1190,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,16 +1207,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1341,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1358,16 +1258,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,7 +1275,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1392,16 +1292,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,16 +1309,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,13 +1326,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0.95</v>
@@ -1443,7 +1343,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1460,13 +1360,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0.99</v>
@@ -1477,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1494,16 +1394,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1511,7 +1411,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1528,16 +1428,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1562,13 +1462,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>0.95</v>
@@ -1579,7 +1479,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1596,7 +1496,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1613,7 +1513,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -1630,16 +1530,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1647,16 +1547,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,16 +1564,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,16 +1581,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,7 +1598,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1715,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1732,16 +1632,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E45">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,16 +1649,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,16 +1666,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,16 +1683,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="E48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,16 +1700,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,7 +1717,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1834,7 +1734,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -1851,7 +1751,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1868,16 +1768,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,7 +1785,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -1902,13 +1802,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <v>0.99</v>
@@ -1919,7 +1819,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1936,7 +1836,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1953,7 +1853,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -1970,16 +1870,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,7 +1887,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2004,13 +1904,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61">
         <v>0.99</v>
@@ -2021,13 +1921,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62">
         <v>0.99</v>
@@ -2038,7 +1938,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -2055,7 +1955,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -2072,7 +1972,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -2089,16 +1989,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,16 +2006,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,16 +2023,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,7 +2040,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2157,16 +2057,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,7 +2074,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -2191,16 +2091,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,7 +2108,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -2225,7 +2125,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -2242,7 +2142,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -2259,16 +2159,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,16 +2176,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,16 +2193,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,16 +2210,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,7 +2227,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -2344,7 +2244,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -2361,7 +2261,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2378,16 +2278,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="E83">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,16 +2295,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,16 +2312,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,16 +2329,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="E86">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,16 +2346,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,16 +2363,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E88">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,16 +2380,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,16 +2397,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,13 +2414,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="E91">
         <v>0.99</v>
@@ -2531,7 +2431,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2565,16 +2465,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,16 +2482,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,13 +2499,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E96">
         <v>0.99</v>
@@ -2616,7 +2516,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2633,16 +2533,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="E98">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,16 +2550,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,13 +2567,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E100">
         <v>0.99</v>
